--- a/data/trans_bre/P37A-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P37A-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,74</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,09</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-6,99</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-11,29</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,7%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>-9,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>-12,0%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-6,85%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-9,27%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>-14,31%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-7,61%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -2,65</t>
+          <t>-12,58; -2,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,61; -4,22</t>
+          <t>-13,99; -4,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 0,33</t>
+          <t>-9,81; 0,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,35; -6,52</t>
+          <t>-12,43; -1,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -3,74</t>
+          <t>-15,51; -6,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,77; -5,49</t>
+          <t>-10,62; -0,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 0,4</t>
+          <t>-15,59; -3,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,2; -8,52</t>
+          <t>-17,35; -6,24</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-12,31; 0,38</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-15,77; -2,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-19,24; -8,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-14,31; -1,15</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,73</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,07</t>
+          <t>-15,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,24</t>
+          <t>-11,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>-13,21</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,07%</t>
+          <t>-5,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-16,83%</t>
+          <t>-12,07%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-18,17%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-15,76%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-16,81%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-10,51%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 2,14</t>
+          <t>-10,01; 2,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -4,62</t>
+          <t>-14,65; -4,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,41; -10,3</t>
+          <t>-19,58; -10,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,69; -3,26</t>
+          <t>-18,06; -4,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 2,73</t>
+          <t>-21,7; -3,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,75; -5,83</t>
+          <t>-16,98; -1,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,77; -12,63</t>
+          <t>-11,92; 3,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,43; -4,48</t>
+          <t>-17,34; -5,62</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-23,04; -12,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-23,0; -6,71</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-26,69; -5,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-20,32; -1,54</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,74</t>
+          <t>-9,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,2</t>
+          <t>-9,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-9,42</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-15,56%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,46%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,52%</t>
+          <t>-12,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-12,15%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-3,24%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-10,87%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,4; -0,64</t>
+          <t>-20,37; 0,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,97; -0,46</t>
+          <t>-19,71; -0,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 9,02</t>
+          <t>-11,86; 9,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-19,66; 0,96</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-27,31; -1,21</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,08; -0,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 11,73</t>
+          <t>-23,59; 0,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-23,03; -0,3</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-13,63; 12,84</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-21,91; 1,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,54</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,7</t>
+          <t>-9,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,88%</t>
+          <t>-11,69</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-11,15%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,84%</t>
+          <t>-12,13%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-11,11%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-11,98%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-14,83%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-8,58%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -3,63</t>
+          <t>-10,48; -2,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -6,26</t>
+          <t>-12,76; -6,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -5,28</t>
+          <t>-12,59; -5,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -7,43</t>
+          <t>-13,15; -5,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,06; -4,64</t>
+          <t>-15,9; -7,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,62; -8,06</t>
+          <t>-10,24; -1,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,25; -6,7</t>
+          <t>-12,7; -3,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,63; -9,81</t>
+          <t>-15,56; -8,36</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-15,33; -6,85</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-16,62; -7,23</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-19,6; -9,82</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-13,76; -2,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P37A-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P37A-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,45</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,26</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,99</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-11,29</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-5,41</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-9,41%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-12,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-6,85%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-9,27%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-14,31%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-7,61%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-7.942352871169922</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-9.524280526951168</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.344368731071669</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-6.83070314360984</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-11.29256063959353</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-5.40581757391757</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.09959165311622831</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.120646536283071</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.06928881587815826</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.09040201882033126</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.1430924398057613</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.0761933779445547</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,58; -2,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,99; -4,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,81; 0,22</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-12,43; -1,54</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-15,51; -6,24</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-10,62; -0,75</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-15,59; -3,11</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-17,35; -6,24</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-12,31; 0,38</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-15,77; -2,12</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-19,24; -8,03</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-14,31; -1,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.32032469097824</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.27946094068106</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.90013320686761</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-12.15522226451929</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-15.50884211834914</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-10.73379559240698</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1629963648373386</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1748435853496013</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1242000390575517</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1554497640527373</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.1923741076228867</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.1438269209200835</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-3.03324187304254</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-4.740161522134493</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.215894896992104</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-1.417814271957701</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-6.239256056075856</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.7568791809685791</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.03981772813173568</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.06210248434622531</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.004025439523919877</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.01963344860707643</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-0.08032985846744163</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>-0.01079424308970947</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,37</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-9,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-15,16</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-11,9</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-13,21</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-8,43</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-5,39%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-12,07%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-18,17%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-15,76%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-16,81%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-10,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 2,56</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-14,65; -4,53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,58; -10,07</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-18,06; -4,72</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-21,7; -3,47</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-16,98; -1,17</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-11,92; 3,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-17,34; -5,62</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-23,04; -12,32</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-23,0; -6,71</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-26,69; -5,13</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-20,32; -1,54</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.550231739701326</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-9.631719110752091</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-15.15221039736796</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-11.60687629081171</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-13.21209035531271</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-8.216121149813382</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.04383058566680672</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1179336505116895</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1816016384544454</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1537633393983439</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.1680516758773709</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.102675540024598</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-9,96</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-9,91</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,7</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-9,42</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-12,08%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-12,15%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-3,24%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-10,87%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.139984215121107</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.40349417430382</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-19.67984288403096</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-17.99330077219141</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-21.70410890667721</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-16.66446889025658</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1088419545812833</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1701742409528087</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2308293441804566</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2269100596934648</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2668586740261901</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.2009515049672266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-20,37; 0,81</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-19,71; -0,2</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,86; 9,66</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,66; 0,96</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-23,59; 0,86</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-23,03; -0,3</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-13,63; 12,84</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-21,91; 1,0</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.714111354729211</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-4.279338636637308</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-10.23130123159917</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-4.527642826234572</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-3.473572675814148</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.9997105128653829</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.04900842456985316</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.05464733899770381</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.126206463722815</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.06286451009892502</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>-0.05129045958960082</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>-0.01502332355233067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,61</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-9,73</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-8,92</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-9,2</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-11,69</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-6,28</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-8,22%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-12,13%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-11,11%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-11,98%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-14,83%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-8,58%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-12.95046638423869</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-9.633971815771513</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.297753296146677</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-9.938106984374285</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.1564295181935114</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1181288694659881</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.03944977434116039</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1142884561501327</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,48; -2,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,76; -6,63</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,59; -5,35</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-13,15; -5,43</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-15,9; -7,44</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-10,24; -1,83</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-12,7; -3,52</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-15,56; -8,36</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-15,33; -6,85</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; -7,23</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-19,6; -9,82</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-13,76; -2,66</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-24.32618103076228</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.48637027288103</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.63306454315855</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-20.02679755818349</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.2850604232247235</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2270402222659894</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1421888816611957</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.221232937445788</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-2.10294750245108</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.266392811317975</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.51605034359237</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.4479399450325209</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>-0.03087501381489267</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.001413516993510634</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1142812422087604</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.00250114378986857</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-6.857907226973802</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-9.648807683009665</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-9.022553591695615</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-9.069027204094082</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-11.69431686093211</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-6.228513324460971</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.08506402215207885</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1200822231733284</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1121646084503288</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1179388329337374</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.1483182928614869</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.08515228896805715</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-10.66752972747273</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.78846167489611</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-12.58639548881078</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-13.05261780409799</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-15.90219785812488</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-10.18606351632274</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1295219379163376</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1551191793890442</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1537117843093448</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1667912147797483</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1959942316771368</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1366288758501019</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-2.679102644086835</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-6.53064176931287</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-5.315059582537059</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-5.313988265320869</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-7.439675166847614</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-1.813594054999502</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.03582917137875959</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.08354495955461065</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.06899559362202774</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.07172387215818148</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-0.0982290954075067</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.0261905585461293</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
